--- a/接口.xlsx
+++ b/接口.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainli\Desktop\Program\CEEdbanalyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24A6E35-F734-4F42-B611-AF5A0064D03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D482500-D0F5-4457-BEF1-23688FF376D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -531,22 +531,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="48.58203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="48.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="34.25" customWidth="1"/>
+    <col min="7" max="7" width="34.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -571,7 +571,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -593,7 +593,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="70.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -607,7 +607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -631,7 +631,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -651,7 +651,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="96.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -668,7 +668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="52.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -712,7 +712,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -721,7 +721,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -730,7 +730,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -739,7 +739,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>

--- a/接口.xlsx
+++ b/接口.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainli\Desktop\Program\CEEdbanalyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D482500-D0F5-4457-BEF1-23688FF376D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2221BC56-E584-4D17-9119-CF66A8A11037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/接口.xlsx
+++ b/接口.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainli\Desktop\Program\CEEdbanalyze\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\IDEAProjects\CEEdbanalyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D482500-D0F5-4457-BEF1-23688FF376D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E894D9-F2A6-47E4-9F95-A80E4D2BBC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>请求类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,84 @@
   </si>
   <si>
     <t>其实也可以用上面那个接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username, password, inputCode(用户输入的验证码)，session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/verify/generateImageCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session,  response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:8080/verify/generateImageCode
+或
+&lt;!-- 在HTML中添加验证码图像 --&gt;
+&lt;img src="/generateImageCode" alt="验证码" onclick="this.src='/generateImageCode?'+Math.random();" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在response里的图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若登陆成功，则返回User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/login2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username, password</t>
+  </si>
+  <si>
+    <t>localhost:8080/user/login2?username=585&amp;password=585</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个接口没有验证码检验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/file/download2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:8080/file/download2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/file/download2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:8080/file/download2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弄一个超链接按钮应该就可以</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,24 +607,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="48.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="48.58203125" customWidth="1"/>
+    <col min="5" max="5" width="10.4140625" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="34.21875" customWidth="1"/>
+    <col min="7" max="7" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="31.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -571,7 +649,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -593,7 +671,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="70.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -607,7 +685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="67.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -631,7 +709,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -651,7 +729,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="96.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -668,7 +746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="103.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -692,7 +770,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="52.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -712,41 +790,105 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+    <row r="9" spans="1:11" ht="107.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+    <row r="10" spans="1:11" ht="113.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+    <row r="11" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+    <row r="12" spans="1:11" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/接口.xlsx
+++ b/接口.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\IDEAProjects\CEEdbanalyze\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86198\Desktop\CEEdbanalyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E894D9-F2A6-47E4-9F95-A80E4D2BBC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E72928A-EFFC-4D63-8AF8-8BF703F52E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>请求类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,34 @@
   </si>
   <si>
     <t>弄一个超链接按钮应该就可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校的专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/school/majorsearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/school/majorscore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校某年的专业分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,24 +635,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="48.58203125" customWidth="1"/>
-    <col min="5" max="5" width="10.4140625" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="48.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="34.25" customWidth="1"/>
+    <col min="7" max="7" width="34.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -649,7 +677,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -671,7 +699,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="70.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -685,7 +713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="67.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -709,7 +737,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -729,7 +757,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="96.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -746,7 +774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="103.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -770,7 +798,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="52.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -790,7 +818,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="107.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="107.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -808,7 +836,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="113.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="113.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -828,7 +856,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -850,7 +878,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
@@ -872,7 +900,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -888,6 +916,34 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/接口.xlsx
+++ b/接口.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\IDEAProjects\CEEdbanalyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E894D9-F2A6-47E4-9F95-A80E4D2BBC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7D4463-C90C-4689-AA24-F9B321D488AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,23 +155,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>secondLayer,  rank,  name,page,  size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>secondLayer,  rank,  name可以为空，也可以直接不传入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/major/findByName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localhost:8080/major/search?page=2&amp;size=10&amp;secondLayer&amp;rank&amp;name=计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -258,6 +246,20 @@
   </si>
   <si>
     <t>弄一个超链接按钮应该就可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level(本科/专科)
+type(工学，理学)
+name,page,  size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:8080/major/search?page=1&amp;size=10&amp;level=本科&amp;type=工学&amp;name=计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level,  type,  name可以为空，也可以直接不传入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -754,10 +756,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
@@ -766,128 +768,128 @@
         <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="52.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="107.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="113.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/接口.xlsx
+++ b/接口.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86198\Desktop\CEEdbanalyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E72928A-EFFC-4D63-8AF8-8BF703F52E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2878F26-A323-45B3-8FEE-699F5BB285D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,10 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学校的专业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,11 +277,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id,year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学校某年的专业分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id，page，size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,year，page，size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,7 +638,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -920,30 +920,30 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/接口.xlsx
+++ b/接口.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\IDEAProjects\CEEdbanalyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7D4463-C90C-4689-AA24-F9B321D488AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D50D78-BA87-490C-BC57-5B5BC48A256E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
   <si>
     <t>请求类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,11 +155,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>secondLayer,  rank,  name,page,  size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondLayer,  rank,  name可以为空，也可以直接不传入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/major/findByName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:8080/major/search?page=2&amp;size=10&amp;secondLayer&amp;rank&amp;name=计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -249,17 +261,129 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>level(本科/专科)
-type(工学，理学)
-name,page,  size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localhost:8080/major/search?page=1&amp;size=10&amp;level=本科&amp;type=工学&amp;name=计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level,  type,  name可以为空，也可以直接不传入</t>
+    <t>学校的专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/school/majorsearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/school/majorscore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校某年的专业分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id，page，size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,year，page，size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时没做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/schoolMajorScore/getBySchoolId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schoolId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:8080/schoolMajorScore/getBySchoolId?schoolId=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+        {
+        "id": 486,
+        "schoolId": 3,
+        "majorName": "法学类",
+        "type": "普通类一段",
+        "majorLimit": "不限",
+        "rank2020": 6311,
+        "rank2021": 5960,
+        "rank2022": null,
+        "rank2023": null,
+        "score2020": 626,
+        "score2021": 624,
+        "score2022": null,
+        "score2023": null,
+        "recruit2020": null,
+        "recruit2021": null,
+        "recruit2022": null,
+        "recruit2023": null
+    },
+    {
+        "id": 487,
+        "schoolId": 3,
+        "majorName": "经济学类",
+        "type": "普通类一段",
+        "majorLimit": "不限",
+        "rank2020": 6082,
+        "rank2021": 6261,
+        "rank2022": null,
+        "rank2023": null,
+        "score2020": 627,
+        "score2021": 623,
+        "score2022": null,
+        "score2023": null,
+        "recruit2020": "78",
+        "recruit2021": "85",
+        "recruit2022": "80",
+        "recruit2023": "80"
+    },
+    {
+        "id": 497,
+        "schoolId": 3,
+        "majorName": "物理学类",
+        "type": "普通类一段",
+        "majorLimit": "物理必选",
+        "rank2020": 7076,
+        "rank2021": null,
+        "rank2022": null,
+        "rank2023": null,
+        "score2020": 623,
+        "score2021": null,
+        "score2022": null,
+        "score2023": null,
+        "recruit2020": null,
+        "recruit2021": null,
+        "recruit2022": "80",
+        "recruit2023": "80"
+    }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/schoolMajorScore/getBySchoolIdAndMajorName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schoolId,majorName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:8080/schoolMajorScore/getBySchoolIdAndMajorName?schoolId=3&amp;majorName=计算机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字支持模糊搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -317,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -329,6 +453,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -609,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -756,10 +883,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
@@ -768,128 +895,203 @@
         <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="52.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="107.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="113.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="245.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="78.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
